--- a/out/15_HMIAlarms.xlsx
+++ b/out/15_HMIAlarms.xlsx
@@ -199,22 +199,22 @@
     <t>btn_I1.2_wp</t>
   </si>
   <si>
-    <t>[I10.1] czujnik "GN-docisk" HP open (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.1] czujnik "GN-docisk" WP close (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.4] czujnik "ST1-blokada_lewa" HP down (2) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.4] czujnik "ST1-blokada_lewa" WP up (2) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.5] czujnik "ST1-blokada_prawa" HP down (3) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.5] czujnik "ST1-blokada_prawa" WP up (3) jest nieaktywny</t>
+    <t>[I10.1] czujnik "GN-docisk" HP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.1] czujnik "GN-docisk" WP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.4] czujnik "ST1-blokada_lewa" HP (2) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.4] czujnik "ST1-blokada_lewa" WP (2) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.5] czujnik "ST1-blokada_prawa" HP (3) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.5] czujnik "ST1-blokada_prawa" WP (3) jest nieaktywny</t>
   </si>
   <si>
     <t>[I1.3] czujnik "A-sen_skaner_lewo" jest aktywny</t>

--- a/out/15_HMIAlarms.xlsx
+++ b/out/15_HMIAlarms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -58,22 +58,154 @@
     <t>ID</t>
   </si>
   <si>
-    <t>valve_I10.1_hp</t>
-  </si>
-  <si>
-    <t>valve_I11.1_wp</t>
-  </si>
-  <si>
-    <t>valve_I20.4_hp</t>
-  </si>
-  <si>
-    <t>valve_I21.4_wp</t>
-  </si>
-  <si>
-    <t>valve_I20.5_hp</t>
-  </si>
-  <si>
-    <t>valve_I21.5_wp</t>
+    <t>valve_I10.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I10.3_hp2</t>
+  </si>
+  <si>
+    <t>valve_I11.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I11.3_wp2</t>
+  </si>
+  <si>
+    <t>valve_I20.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I21.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I20.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I21.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I30.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I31.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I30.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I31.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I30.3_hp</t>
+  </si>
+  <si>
+    <t>valve_I31.3_wp</t>
+  </si>
+  <si>
+    <t>valve_I30.4_hp</t>
+  </si>
+  <si>
+    <t>valve_I31.4_wp</t>
+  </si>
+  <si>
+    <t>sen_I10.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I10.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I11.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I11.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I10.1_hp</t>
+  </si>
+  <si>
+    <t>sen_I10.1_wp</t>
+  </si>
+  <si>
+    <t>sen_I11.1_hp</t>
+  </si>
+  <si>
+    <t>sen_I11.1_wp</t>
+  </si>
+  <si>
+    <t>sen_I10.4_hp</t>
+  </si>
+  <si>
+    <t>sen_I10.4_wp</t>
+  </si>
+  <si>
+    <t>sen_I11.4_hp</t>
+  </si>
+  <si>
+    <t>sen_I11.4_wp</t>
+  </si>
+  <si>
+    <t>sen_I10.5_hp</t>
+  </si>
+  <si>
+    <t>sen_I10.5_wp</t>
+  </si>
+  <si>
+    <t>sen_I11.5_hp</t>
+  </si>
+  <si>
+    <t>sen_I11.5_wp</t>
+  </si>
+  <si>
+    <t>sen_I10.6_hp</t>
+  </si>
+  <si>
+    <t>sen_I10.6_wp</t>
+  </si>
+  <si>
+    <t>sen_I11.6_hp</t>
+  </si>
+  <si>
+    <t>sen_I11.6_wp</t>
+  </si>
+  <si>
+    <t>sen_I10.7_hp</t>
+  </si>
+  <si>
+    <t>sen_I10.7_wp</t>
+  </si>
+  <si>
+    <t>sen_I30.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I30.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I31.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I31.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I20.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I20.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I21.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I21.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I1.1_hp</t>
+  </si>
+  <si>
+    <t>sen_I1.1_wp</t>
+  </si>
+  <si>
+    <t>sen_I1.2_hp</t>
+  </si>
+  <si>
+    <t>sen_I1.2_wp</t>
   </si>
   <si>
     <t>sen_I1.3_hp</t>
@@ -82,99 +214,24 @@
     <t>sen_I1.3_wp</t>
   </si>
   <si>
-    <t>sen_I1.4_hp</t>
-  </si>
-  <si>
-    <t>sen_I1.4_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.3_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.3_wp</t>
-  </si>
-  <si>
-    <t>sen_I20.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I20.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.2_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.2_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.2_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.2_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.3_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.3_wp</t>
-  </si>
-  <si>
-    <t>sen_I20.1_hp</t>
-  </si>
-  <si>
-    <t>sen_I20.1_wp</t>
-  </si>
-  <si>
-    <t>sen_I21.1_hp</t>
-  </si>
-  <si>
-    <t>sen_I21.1_wp</t>
-  </si>
-  <si>
-    <t>sen_I20.2_hp</t>
-  </si>
-  <si>
-    <t>sen_I20.2_wp</t>
-  </si>
-  <si>
-    <t>sen_I21.2_hp</t>
-  </si>
-  <si>
-    <t>sen_I21.2_wp</t>
-  </si>
-  <si>
-    <t>sen_I20.3_hp</t>
-  </si>
-  <si>
-    <t>sen_I20.3_wp</t>
-  </si>
-  <si>
-    <t>sen_I21.3_hp</t>
-  </si>
-  <si>
-    <t>sen_I21.3_wp</t>
-  </si>
-  <si>
     <t>safe_I0.1_hp</t>
   </si>
   <si>
+    <t>safe_I0.2_hp</t>
+  </si>
+  <si>
+    <t>safe_I0.3_hp</t>
+  </si>
+  <si>
     <t>safe_I0.4_hp</t>
   </si>
   <si>
     <t>safe_I0.5_hp</t>
   </si>
   <si>
+    <t>safe_I1.0_hp</t>
+  </si>
+  <si>
     <t>btn_I0.0_hp</t>
   </si>
   <si>
@@ -193,129 +250,180 @@
     <t>btn_I0.7_wp</t>
   </si>
   <si>
-    <t>btn_I1.2_hp</t>
-  </si>
-  <si>
-    <t>btn_I1.2_wp</t>
-  </si>
-  <si>
-    <t>[I10.1] czujnik "GN-docisk" HP (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.1] czujnik "GN-docisk" WP (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.4] czujnik "ST1-blokada_lewa" HP (2) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.4] czujnik "ST1-blokada_lewa" WP (2) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.5] czujnik "ST1-blokada_prawa" HP (3) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.5] czujnik "ST1-blokada_prawa" WP (3) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I1.3] czujnik "A-sen_skaner_lewo" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I1.3] czujnik "A-sen_skaner_lewo" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I1.4] czujnik "A-sen_skaner_prawo" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I1.4] czujnik "A-sen_skaner_prawo" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.0] czujnik "GN-sen_stelaz_sruba_lewa" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.0] czujnik "GN-sen_stelaz_sruba_lewa" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.0] czujnik "GN-sen_stelaz_sruba_prawa" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.0] czujnik "GN-sen_stelaz_sruba_prawa" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.3] czujnik "GN-sen_generator_sruba" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.3] czujnik "GN-sen_generator_sruba" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.0] czujnik "OETIKER_pozycja_hp" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I20.0] czujnik "OETIKER_pozycja_hp" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.2] czujnik "OETIKER_pozycja_2mm" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.2] czujnik "OETIKER_pozycja_2mm" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.2] czujnik "OETIKER_pozycja_4mm" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.2] czujnik "OETIKER_pozycja_4mm" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.3] czujnik "OETIKER_pozycja_tensometr" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.3] czujnik "OETIKER_pozycja_tensometr" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.1] czujnik "OETIKER_pozycja_opaska_lewa_hp" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I20.1] czujnik "OETIKER_pozycja_opaska_lewa_hp" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.1] czujnik "OETIKER_pozycja_opaska_prawa_hp" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I21.1] czujnik "OETIKER_pozycja_opaska_prawa_hp" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.2] czujnik "OETIKER_pozycja_opaska_lewa_wp" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I20.2] czujnik "OETIKER_pozycja_opaska_lewa_wp" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.2] czujnik "OETIKER_pozycja_opaska_prawa_wp" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I21.2] czujnik "OETIKER_pozycja_opaska_prawa_wp" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.3] czujnik "ST1-sen_zasuwka_lewo" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I20.3] czujnik "ST1-sen_zasuwka_lewo" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.3] czujnik "ST1-sen_zasuwka_prawo" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I21.3] czujnik "ST1-sen_zasuwka_prawo" jest nieaktywny</t>
+    <t>[I10.2] czujnik "ST1-modul" HP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.3] czujnik "ST1-modul" HP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.2] czujnik "ST1-modul" WP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.3] czujnik "ST1-modul" WP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.1] czujnik "ST1-dzwignia" HP (2) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.1] czujnik "ST1-dzwignia" WP (2) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.2] czujnik "ST1-wtyczka" HP (3) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.2] czujnik "ST1-wtyczka" WP (3) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.1] czujnik "ST2-pomiar_gt2" HP (5) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.1] czujnik "ST2-pomiar_gt2" WP (5) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.2] czujnik "ST2-pin_wtyczka" HP (6) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.2] czujnik "ST2-pin_wtyczka" WP (6) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.3] czujnik "ST2-pin_generator_lewy" HP (7) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.3] czujnik "ST2-pin_generator_lewy" WP (7) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.4] czujnik "ST2-pin_generator_prawy" HP (8) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.4] czujnik "ST2-pin_generator_prawy" WP (8) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.0] czujnik "ST1-sen_sruba_01" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I10.0] czujnik "ST1-sen_sruba_01" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.0] czujnik "ST1-sen_sruba_02" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I11.0] czujnik "ST1-sen_sruba_02" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.1] czujnik "ST1-sen_sruba_03" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I10.1] czujnik "ST1-sen_sruba_03" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.1] czujnik "ST1-sen_sruba_04" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I11.1] czujnik "ST1-sen_sruba_04" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.4] czujnik "STA-sen_pakiet" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I10.4] czujnik "STA-sen_pakiet" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.4] czujnik "STB-sen_pakiet" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I11.4] czujnik "STB-sen_pakiet" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.5] czujnik "STA-sen_wtyczka" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I10.5] czujnik "STA-sen_wtyczka" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.5] czujnik "STB-sen_wtyczka" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I11.5] czujnik "STB-sen_wtyczka" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.6] czujnik "ST1-sen_gniazdo_00" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I10.6] czujnik "ST1-sen_gniazdo_00" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I11.6] czujnik "ST1-sen_gniazdo_01" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I11.6] czujnik "ST1-sen_gniazdo_01" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I10.7] czujnik "ST1-sen_gniazdo_02" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I10.7] czujnik "ST1-sen_gniazdo_02" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.0] czujnik "A-sen_stol_00" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I30.0] czujnik "A-sen_stol_00" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.0] czujnik "A-sen_stol_01" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I31.0] czujnik "A-sen_stol_01" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.0] czujnik "ST1-sen_skaner_lewo" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I20.0] czujnik "ST1-sen_skaner_lewo" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.0] czujnik "ST1-sen_skaner_prawo" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I21.0] czujnik "ST1-sen_skaner_prawo" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I1.1] czujnik "WEISS_na_pozycji" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I1.1] czujnik "WEISS_na_pozycji" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I1.2] czujnik "WEISS_alarm" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I1.2] czujnik "WEISS_alarm" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I1.3] czujnik "WEISS_zezwolenie_na_start" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I1.3] czujnik "WEISS_zezwolenie_na_start" jest nieaktywny</t>
   </si>
   <si>
     <t>[I0.1]  "SAFETY_cisnienie_ok" jest nieaktywny</t>
   </si>
   <si>
-    <t>[I0.4]  "SAFETY_blokada" jest nieaktywny</t>
+    <t>[I0.2]  "SAFETY_faza_ok" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I0.3]  "SAFETY_stol_ok" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I0.4]  "SAFETY_kurtyna_ok" jest nieaktywny</t>
   </si>
   <si>
     <t>[I0.5]  "SAFETY_estop_ok" jest nieaktywny</t>
   </si>
   <si>
+    <t>[I1.0]  "SAFETY_drzwi_zamkniete" jest nieaktywny</t>
+  </si>
+  <si>
     <t>[I0.0] przycisk "A-btn_start" jest aktywny</t>
   </si>
   <si>
@@ -334,12 +442,6 @@
     <t>[I0.7] przycisk "A-btn_panel_czerwony" jest nieaktywny</t>
   </si>
   <si>
-    <t>[I1.2] przycisk "A-btn_start_na_uchwycie" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I1.2] przycisk "A-btn_start_na_uchwycie" jest nieaktywny</t>
-  </si>
-  <si>
     <t>VALVE</t>
   </si>
   <si>
@@ -359,6 +461,9 @@
   </si>
   <si>
     <t>A-ALARMS_SENSORS_sen1</t>
+  </si>
+  <si>
+    <t>A-ALARMS_SENSORS_sen2</t>
   </si>
   <si>
     <t>A-ALARMS_SAFETY_sft0</t>
@@ -779,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,37 +942,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -878,37 +983,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -919,37 +1024,37 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -960,37 +1065,37 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1001,37 +1106,37 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1042,37 +1147,37 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M7" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1083,37 +1188,37 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M8" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1124,37 +1229,37 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1165,37 +1270,37 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1206,37 +1311,37 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1247,37 +1352,37 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1288,37 +1393,37 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1329,37 +1434,37 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1370,37 +1475,37 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1411,37 +1516,37 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1452,37 +1557,37 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1493,37 +1598,37 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1534,37 +1639,37 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1575,37 +1680,37 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1616,37 +1721,37 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1657,37 +1762,37 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1698,37 +1803,37 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1739,37 +1844,37 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N24" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1780,37 +1885,37 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M25" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1821,37 +1926,37 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N26" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1862,37 +1967,37 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N27" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1903,37 +2008,37 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L28" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M28" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1944,37 +2049,37 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N29" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1985,37 +2090,37 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N30" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2026,37 +2131,37 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L31" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M31" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N31" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2067,37 +2172,37 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N32" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2108,37 +2213,37 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M33" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N33" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2149,37 +2254,37 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L34" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N34" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2190,37 +2295,37 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L35" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M35" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N35" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2231,37 +2336,37 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N36" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2272,37 +2377,37 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L37" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M37" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N37" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2313,37 +2418,37 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="M38" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2354,37 +2459,37 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L39" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N39" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2395,37 +2500,37 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="M40" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N40" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2436,37 +2541,37 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J41" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K41" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M41" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N41" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2477,37 +2582,37 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M42" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N42" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2518,37 +2623,37 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L43" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N43" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2559,37 +2664,37 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K44" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L44" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N44" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2600,37 +2705,37 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I45" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K45" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M45" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N45" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2641,37 +2746,37 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I46" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J46" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M46" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N46" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2682,37 +2787,37 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K47" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M47" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="N47" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2723,37 +2828,734 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" t="s">
+        <v>143</v>
+      </c>
+      <c r="M48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" t="s">
+        <v>168</v>
+      </c>
+      <c r="K49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" t="s">
+        <v>143</v>
+      </c>
+      <c r="M49" t="s">
+        <v>169</v>
+      </c>
+      <c r="N49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50" t="s">
+        <v>152</v>
+      </c>
+      <c r="J50" t="s">
+        <v>168</v>
+      </c>
+      <c r="K50" t="s">
+        <v>152</v>
+      </c>
+      <c r="L50" t="s">
+        <v>143</v>
+      </c>
+      <c r="M50" t="s">
+        <v>169</v>
+      </c>
+      <c r="N50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" t="s">
+        <v>168</v>
+      </c>
+      <c r="K51" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" t="s">
+        <v>143</v>
+      </c>
+      <c r="M51" t="s">
+        <v>169</v>
+      </c>
+      <c r="N51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" t="s">
+        <v>168</v>
+      </c>
+      <c r="K52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" t="s">
+        <v>143</v>
+      </c>
+      <c r="M52" t="s">
+        <v>169</v>
+      </c>
+      <c r="N52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" t="s">
+        <v>168</v>
+      </c>
+      <c r="K53" t="s">
+        <v>152</v>
+      </c>
+      <c r="L53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M53" t="s">
+        <v>169</v>
+      </c>
+      <c r="N53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" t="s">
+        <v>152</v>
+      </c>
+      <c r="H54" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" t="s">
+        <v>152</v>
+      </c>
+      <c r="J54" t="s">
+        <v>168</v>
+      </c>
+      <c r="K54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" t="s">
+        <v>169</v>
+      </c>
+      <c r="N54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" t="s">
+        <v>168</v>
+      </c>
+      <c r="K55" t="s">
+        <v>152</v>
+      </c>
+      <c r="L55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" t="s">
+        <v>169</v>
+      </c>
+      <c r="N55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" t="s">
+        <v>152</v>
+      </c>
+      <c r="J56" t="s">
+        <v>168</v>
+      </c>
+      <c r="K56" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" t="s">
+        <v>169</v>
+      </c>
+      <c r="N56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
         <v>133</v>
       </c>
-      <c r="I48" t="s">
-        <v>117</v>
-      </c>
-      <c r="J48" t="s">
-        <v>133</v>
-      </c>
-      <c r="K48" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="E57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57" t="s">
+        <v>152</v>
+      </c>
+      <c r="L57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" t="s">
+        <v>169</v>
+      </c>
+      <c r="N57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
         <v>134</v>
       </c>
-      <c r="N48" t="s">
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I58" t="s">
+        <v>152</v>
+      </c>
+      <c r="J58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K58" t="s">
+        <v>152</v>
+      </c>
+      <c r="L58" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" t="s">
+        <v>169</v>
+      </c>
+      <c r="N58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
         <v>135</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" t="s">
+        <v>168</v>
+      </c>
+      <c r="I59" t="s">
+        <v>152</v>
+      </c>
+      <c r="J59" t="s">
+        <v>168</v>
+      </c>
+      <c r="K59" t="s">
+        <v>152</v>
+      </c>
+      <c r="L59" t="s">
+        <v>144</v>
+      </c>
+      <c r="M59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" t="s">
+        <v>152</v>
+      </c>
+      <c r="J60" t="s">
+        <v>168</v>
+      </c>
+      <c r="K60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" t="s">
+        <v>145</v>
+      </c>
+      <c r="M60" t="s">
+        <v>169</v>
+      </c>
+      <c r="N60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" t="s">
+        <v>168</v>
+      </c>
+      <c r="I61" t="s">
+        <v>152</v>
+      </c>
+      <c r="J61" t="s">
+        <v>168</v>
+      </c>
+      <c r="K61" t="s">
+        <v>152</v>
+      </c>
+      <c r="L61" t="s">
+        <v>145</v>
+      </c>
+      <c r="M61" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" t="s">
+        <v>168</v>
+      </c>
+      <c r="I62" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" t="s">
+        <v>168</v>
+      </c>
+      <c r="K62" t="s">
+        <v>152</v>
+      </c>
+      <c r="L62" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62" t="s">
+        <v>169</v>
+      </c>
+      <c r="N62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" t="s">
+        <v>168</v>
+      </c>
+      <c r="I63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J63" t="s">
+        <v>168</v>
+      </c>
+      <c r="K63" t="s">
+        <v>152</v>
+      </c>
+      <c r="L63" t="s">
+        <v>145</v>
+      </c>
+      <c r="M63" t="s">
+        <v>169</v>
+      </c>
+      <c r="N63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I64" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" t="s">
+        <v>168</v>
+      </c>
+      <c r="K64" t="s">
+        <v>152</v>
+      </c>
+      <c r="L64" t="s">
+        <v>145</v>
+      </c>
+      <c r="M64" t="s">
+        <v>169</v>
+      </c>
+      <c r="N64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" t="s">
+        <v>168</v>
+      </c>
+      <c r="I65" t="s">
+        <v>152</v>
+      </c>
+      <c r="J65" t="s">
+        <v>168</v>
+      </c>
+      <c r="K65" t="s">
+        <v>152</v>
+      </c>
+      <c r="L65" t="s">
+        <v>145</v>
+      </c>
+      <c r="M65" t="s">
+        <v>169</v>
+      </c>
+      <c r="N65" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/out/15_HMIAlarms.xlsx
+++ b/out/15_HMIAlarms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -58,16 +58,88 @@
     <t>ID</t>
   </si>
   <si>
-    <t>valve_I10.2_hp</t>
-  </si>
-  <si>
-    <t>valve_I10.3_hp2</t>
-  </si>
-  <si>
-    <t>valve_I11.2_wp</t>
-  </si>
-  <si>
-    <t>valve_I11.3_wp2</t>
+    <t>valve_I50.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I51.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I50.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I51.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I50.3_hp</t>
+  </si>
+  <si>
+    <t>valve_I51.3_wp</t>
+  </si>
+  <si>
+    <t>valve_I50.4_hp</t>
+  </si>
+  <si>
+    <t>valve_I70.5_wp</t>
+  </si>
+  <si>
+    <t>valve_I60.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I61.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I60.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I60.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I61.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I61.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I70.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I71.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I70.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I70.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I71.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I71.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I60.4_hp</t>
+  </si>
+  <si>
+    <t>valve_I61.4_wp</t>
+  </si>
+  <si>
+    <t>valve_I60.5_hp</t>
+  </si>
+  <si>
+    <t>valve_I61.5_wp</t>
+  </si>
+  <si>
+    <t>valve_I70.4_hp</t>
+  </si>
+  <si>
+    <t>valve_I71.4_wp</t>
+  </si>
+  <si>
+    <t>valve_I20.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I21.0_wp</t>
   </si>
   <si>
     <t>valve_I20.1_hp</t>
@@ -82,6 +154,30 @@
     <t>valve_I21.2_wp</t>
   </si>
   <si>
+    <t>valve_I150.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I151.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I150.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I151.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I150.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I151.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I30.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I31.0_wp</t>
+  </si>
+  <si>
     <t>valve_I30.1_hp</t>
   </si>
   <si>
@@ -91,127 +187,241 @@
     <t>valve_I30.2_hp</t>
   </si>
   <si>
-    <t>valve_I31.2_wp</t>
-  </si>
-  <si>
-    <t>valve_I30.3_hp</t>
-  </si>
-  <si>
-    <t>valve_I31.3_wp</t>
-  </si>
-  <si>
-    <t>valve_I30.4_hp</t>
-  </si>
-  <si>
-    <t>valve_I31.4_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.1_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.1_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.1_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.1_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.4_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.4_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.4_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.4_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.5_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.5_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.5_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.5_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.6_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.6_wp</t>
-  </si>
-  <si>
-    <t>sen_I11.6_hp</t>
-  </si>
-  <si>
-    <t>sen_I11.6_wp</t>
-  </si>
-  <si>
-    <t>sen_I10.7_hp</t>
-  </si>
-  <si>
-    <t>sen_I10.7_wp</t>
-  </si>
-  <si>
-    <t>sen_I30.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I30.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I31.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I31.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I20.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I20.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I21.0_hp</t>
-  </si>
-  <si>
-    <t>sen_I21.0_wp</t>
-  </si>
-  <si>
-    <t>sen_I1.1_hp</t>
-  </si>
-  <si>
-    <t>sen_I1.1_wp</t>
-  </si>
-  <si>
-    <t>sen_I1.2_hp</t>
-  </si>
-  <si>
-    <t>sen_I1.2_wp</t>
-  </si>
-  <si>
-    <t>sen_I1.3_hp</t>
-  </si>
-  <si>
-    <t>sen_I1.3_wp</t>
+    <t>valve_I31.2_hp2</t>
+  </si>
+  <si>
+    <t>valve_I30.3_wp</t>
+  </si>
+  <si>
+    <t>valve_I160.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I161.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I160.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I161.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I160.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I161.2_hp2</t>
+  </si>
+  <si>
+    <t>valve_I160.3_wp</t>
+  </si>
+  <si>
+    <t>valve_I40.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I41.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I41.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I40.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I41.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I40.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I40.3_hp</t>
+  </si>
+  <si>
+    <t>valve_I170.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I171.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I171.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I170.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I171.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I170.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I170.3_hp</t>
+  </si>
+  <si>
+    <t>valve_I140.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I141.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I140.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I141.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I140.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I141.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I120.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I121.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I120.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I121.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I130.0_hp</t>
+  </si>
+  <si>
+    <t>valve_I131.0_wp</t>
+  </si>
+  <si>
+    <t>valve_I130.1_hp</t>
+  </si>
+  <si>
+    <t>valve_I131.1_wp</t>
+  </si>
+  <si>
+    <t>valve_I120.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I121.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I120.3_hp</t>
+  </si>
+  <si>
+    <t>valve_I121.3_wp</t>
+  </si>
+  <si>
+    <t>valve_I120.4_hp</t>
+  </si>
+  <si>
+    <t>valve_I121.4_wp</t>
+  </si>
+  <si>
+    <t>valve_I130.2_hp</t>
+  </si>
+  <si>
+    <t>valve_I131.2_wp</t>
+  </si>
+  <si>
+    <t>valve_I130.3_hp</t>
+  </si>
+  <si>
+    <t>valve_I131.3_wp</t>
+  </si>
+  <si>
+    <t>valve_I130.4_hp</t>
+  </si>
+  <si>
+    <t>valve_I131.4_wp</t>
+  </si>
+  <si>
+    <t>valve_I130.5_hp</t>
+  </si>
+  <si>
+    <t>valve_I131.5_wp</t>
+  </si>
+  <si>
+    <t>valve_I120.5_hp</t>
+  </si>
+  <si>
+    <t>valve_I121.5_wp</t>
+  </si>
+  <si>
+    <t>sen_I41.3_hp</t>
+  </si>
+  <si>
+    <t>sen_I41.3_wp</t>
+  </si>
+  <si>
+    <t>sen_I171.3_hp</t>
+  </si>
+  <si>
+    <t>sen_I171.3_wp</t>
+  </si>
+  <si>
+    <t>sen_I50.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I50.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I51.0_hp</t>
+  </si>
+  <si>
+    <t>sen_I51.0_wp</t>
+  </si>
+  <si>
+    <t>sen_I51.4_hp</t>
+  </si>
+  <si>
+    <t>sen_I51.4_wp</t>
+  </si>
+  <si>
+    <t>sen_I71.5_hp</t>
+  </si>
+  <si>
+    <t>sen_I71.5_wp</t>
+  </si>
+  <si>
+    <t>sen_I50.5_hp</t>
+  </si>
+  <si>
+    <t>sen_I50.5_wp</t>
+  </si>
+  <si>
+    <t>sen_I51.5_hp</t>
+  </si>
+  <si>
+    <t>sen_I51.5_wp</t>
+  </si>
+  <si>
+    <t>sen_I50.6_hp</t>
+  </si>
+  <si>
+    <t>sen_I50.6_wp</t>
+  </si>
+  <si>
+    <t>sen_I60.3_hp</t>
+  </si>
+  <si>
+    <t>sen_I60.3_wp</t>
+  </si>
+  <si>
+    <t>sen_I61.3_hp</t>
+  </si>
+  <si>
+    <t>sen_I61.3_wp</t>
+  </si>
+  <si>
+    <t>sen_I70.3_hp</t>
+  </si>
+  <si>
+    <t>sen_I70.3_wp</t>
+  </si>
+  <si>
+    <t>sen_I71.3_hp</t>
+  </si>
+  <si>
+    <t>sen_I71.3_wp</t>
   </si>
   <si>
     <t>safe_I0.1_hp</t>
@@ -229,9 +439,6 @@
     <t>safe_I0.5_hp</t>
   </si>
   <si>
-    <t>safe_I1.0_hp</t>
-  </si>
-  <si>
     <t>btn_I0.0_hp</t>
   </si>
   <si>
@@ -250,169 +457,379 @@
     <t>btn_I0.7_wp</t>
   </si>
   <si>
-    <t>[I10.2] czujnik "ST1-modul" HP (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.3] czujnik "ST1-modul" HP (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.2] czujnik "ST1-modul" WP (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.3] czujnik "ST1-modul" WP (1) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.1] czujnik "ST1-dzwignia" HP (2) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.1] czujnik "ST1-dzwignia" WP (2) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.2] czujnik "ST1-wtyczka" HP (3) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.2] czujnik "ST1-wtyczka" WP (3) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I30.1] czujnik "ST2-pomiar_gt2" HP (5) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I31.1] czujnik "ST2-pomiar_gt2" WP (5) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I30.2] czujnik "ST2-pin_wtyczka" HP (6) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I31.2] czujnik "ST2-pin_wtyczka" WP (6) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I30.3] czujnik "ST2-pin_generator_lewy" HP (7) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I31.3] czujnik "ST2-pin_generator_lewy" WP (7) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I30.4] czujnik "ST2-pin_generator_prawy" HP (8) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I31.4] czujnik "ST2-pin_generator_prawy" WP (8) jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.0] czujnik "ST1-sen_sruba_01" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.0] czujnik "ST1-sen_sruba_01" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.0] czujnik "ST1-sen_sruba_02" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.0] czujnik "ST1-sen_sruba_02" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.1] czujnik "ST1-sen_sruba_03" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.1] czujnik "ST1-sen_sruba_03" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.1] czujnik "ST1-sen_sruba_04" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.1] czujnik "ST1-sen_sruba_04" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.4] czujnik "STA-sen_pakiet" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.4] czujnik "STA-sen_pakiet" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.4] czujnik "STB-sen_pakiet" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.4] czujnik "STB-sen_pakiet" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.5] czujnik "STA-sen_wtyczka" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.5] czujnik "STA-sen_wtyczka" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.5] czujnik "STB-sen_wtyczka" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.5] czujnik "STB-sen_wtyczka" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.6] czujnik "ST1-sen_gniazdo_00" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.6] czujnik "ST1-sen_gniazdo_00" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I11.6] czujnik "ST1-sen_gniazdo_01" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I11.6] czujnik "ST1-sen_gniazdo_01" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I10.7] czujnik "ST1-sen_gniazdo_02" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I10.7] czujnik "ST1-sen_gniazdo_02" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I30.0] czujnik "A-sen_stol_00" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I30.0] czujnik "A-sen_stol_00" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I31.0] czujnik "A-sen_stol_01" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I31.0] czujnik "A-sen_stol_01" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I20.0] czujnik "ST1-sen_skaner_lewo" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I20.0] czujnik "ST1-sen_skaner_lewo" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I21.0] czujnik "ST1-sen_skaner_prawo" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I21.0] czujnik "ST1-sen_skaner_prawo" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I1.1] czujnik "WEISS_na_pozycji" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I1.1] czujnik "WEISS_na_pozycji" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I1.2] czujnik "WEISS_alarm" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I1.2] czujnik "WEISS_alarm" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I1.3] czujnik "WEISS_zezwolenie_na_start" jest aktywny</t>
-  </si>
-  <si>
-    <t>[I1.3] czujnik "WEISS_zezwolenie_na_start" jest nieaktywny</t>
+    <t>[I50.1] czujnik "GN-blokada_sruby_lewy" HP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I51.1] czujnik "GN-blokada_sruby_lewy" WP (1) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I50.2] czujnik "GN-blokada_sruby_srodek" HP (2) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I51.2] czujnik "GN-blokada_sruby_srodek" WP (2) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I50.3] czujnik "GN-blokada_sruby_prawy" HP (3) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I51.3] czujnik "GN-blokada_sruby_prawy" WP (3) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I50.4] czujnik "GN-zasuwka" HP (4) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I70.5] czujnik "GN-zasuwka" WP (4) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I60.0] czujnik "BR-pin_podnoszenie_01" HP (5) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I61.0] czujnik "BR-pin_podnoszenie_01" WP (5) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I60.2] czujnik "BR-pin_01" HP (6) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I60.1] czujnik "BR-pin_podnoszenie_02" HP (7) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I61.1] czujnik "BR-pin_podnoszenie_02" WP (7) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I61.2] czujnik "BR-pin_02" HP (8) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I70.0] czujnik "BR-pin_podnoszenie_03" HP (9) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I71.0] czujnik "BR-pin_podnoszenie_03" WP (9) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I70.2] czujnik "BR-pin_03" HP (10) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I70.1] czujnik "BR-pin_podnoszenie_04" HP (11) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I71.1] czujnik "BR-pin_podnoszenie_04" WP (11) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I71.2] czujnik "BR-pin_04" HP (12) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I60.4] czujnik "BR-blat5_przod" HP (13) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I61.4] czujnik "BR-blat5_przod" WP (13) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I60.5] czujnik "BR-blat_tyl_lewy" HP (14) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I61.5] czujnik "BR-blat_tyl_lewy" WP (14) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I70.4] czujnik "BR-blat_tyl_prawy" HP (15) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I71.4] czujnik "BR-blat_tyl_prawy" WP (15) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.0] czujnik "ST1-przesuw_stacji" HP (16) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.0] czujnik "ST1-przesuw_stacji" WP (16) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.1] czujnik "ST1-wysuw_miecza" HP (17) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.1] czujnik "ST1-wysuw_miecza" WP (17) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I20.2] czujnik "ST1-miecz" HP (18) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I21.2] czujnik "ST1-miecz" WP (18) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I150.0] czujnik "ST2-przesuw_stacji" HP (19) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I151.0] czujnik "ST2-przesuw_stacji" WP (19) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I150.1] czujnik "ST2-wysuw_miecza" HP (20) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I151.1] czujnik "ST2-wysuw_miecza" WP (20) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I150.2] czujnik "ST2-miecz" HP (21) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I151.2] czujnik "ST2-miecz" WP (21) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.0] czujnik "ST3-miecz" HP (22) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.0] czujnik "ST3-miecz" WP (22) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.1] czujnik "ST3-zderzak" HP (23) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.1] czujnik "ST3-zderzak" WP (23) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.2] czujnik "ST3-podnoszenie_miecza" HP (24) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I31.2] czujnik "ST3-podnoszenie_miecza" HP (24) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I30.3] czujnik "ST3-podnoszenie_miecza" WP (24) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I160.0] czujnik "ST4-miecz" HP (25) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I161.0] czujnik "ST4-miecz" WP (25) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I160.1] czujnik "ST4-zderzak" HP (26) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I161.1] czujnik "ST4-zderzak" WP (26) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I160.2] czujnik "ST4-podnoszenie_miecza" HP (27) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I161.2] czujnik "ST4-podnoszenie_miecza" HP (27) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I160.3] czujnik "ST4-podnoszenie_miecza" WP (27) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I40.2] czujnik "ST5-przesuw_stacji" HP (28) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I41.2] czujnik "ST5-przesuw_stacji" WP (28) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I41.0] czujnik "ST5-stacja_maly_skok" HP (29) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I40.0] czujnik "ST5-stacja_maly_skok" WP (29) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I41.1] czujnik "ST5-stacja_duzy_skok" HP (30) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I40.1] czujnik "ST5-stacja_duzy_skok" WP (30) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I40.3] czujnik "ST5-pin" HP (31) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I170.2] czujnik "ST6-przesuw_stacji" HP (32) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I171.2] czujnik "ST6-przesuw_stacji" WP (32) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I171.0] czujnik "ST6-stacja_maly_skok" HP (33) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I170.0] czujnik "ST6-stacja_maly_skok" WP (33) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I171.1] czujnik "ST6-stacja_duzy_skok" HP (34) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I170.1] czujnik "ST6-stacja_duzy_skok" WP (34) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I170.3] czujnik "ST6-pin" HP (35) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I140.0] czujnik "ST7-przesuw_miecza_1l" HP (36) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I141.0] czujnik "ST7-przesuw_miecza_1l" WP (36) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I140.2] czujnik "ST7-przesuw_miecza_1p" HP (37) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I141.2] czujnik "ST7-przesuw_miecza_1p" WP (37) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I140.1] czujnik "ST7-przesuw_dociskow" HP (38) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I141.1] czujnik "ST7-przesuw_dociskow" WP (38) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I120.0] czujnik "ST7-przesuw_miecza_y_2l" HP (39) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I121.0] czujnik "ST7-przesuw_miecza_y_2l" WP (39) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I120.1] czujnik "ST7-miecz_2l" HP (40) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I121.1] czujnik "ST7-miecz_2l" WP (40) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I130.0] czujnik "ST7-przesuw_miecza_y_2p" HP (41) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I131.0] czujnik "ST7-przesuw_miecza_y_2p" WP (41) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I130.1] czujnik "ST7-miecz_2p" HP (42) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I131.1] czujnik "ST7-miecz_2p" WP (42) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I120.2] czujnik "ST7-przesuw_miecza_x_3l" HP (43) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I121.2] czujnik "ST7-przesuw_miecza_x_3l" WP (43) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I120.3] czujnik "ST7-przesuw_miecza_y_3l" HP (44) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I121.3] czujnik "ST7-przesuw_miecza_y_3l" WP (44) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I120.4] czujnik "ST7-miecz_3l" HP (45) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I121.4] czujnik "ST7-miecz_3l" WP (45) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I130.2] czujnik "ST7-przesuw_miecza_x_3p" HP (46) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I131.2] czujnik "ST7-przesuw_miecza_x_3p" WP (46) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I130.3] czujnik "ST7-przesuw_miecza_y_3p" HP (47) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I131.3] czujnik "ST7-przesuw_miecza_y_3p" WP (47) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I130.4] czujnik "ST7-miecz_3p" HP (48) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I131.4] czujnik "ST7-miecz_3p" WP (48) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I130.5] czujnik "ST7-wysuw_grzebienia" HP (49) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I131.5] czujnik "ST7-wysuw_grzebienia" WP (49) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I120.5] czujnik "ST7-grzebien" HP (50) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I121.5] czujnik "ST7-grzebien" WP (50) jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I41.3] czujnik "ST5-sen_obecnosc_poduszki" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I41.3] czujnik "ST5-sen_obecnosc_poduszki" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I171.3] czujnik "ST6-sen_obecnosc_poduszki" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I171.3] czujnik "ST6-sen_obecnosc_poduszki" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I50.0] czujnik "GN-sen_obecnosc_klipsa_lewy" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I50.0] czujnik "GN-sen_obecnosc_klipsa_lewy" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I51.0] czujnik "GN-sen_obecnosc_klipsa_prawy" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I51.0] czujnik "GN-sen_obecnosc_klipsa_prawy" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I51.4] czujnik "GN-sen_pozycja_skanera_lewo" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I51.4] czujnik "GN-sen_pozycja_skanera_lewo" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I71.5] czujnik "GN-sen_pozycja_skanera_prawo" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I71.5] czujnik "GN-sen_pozycja_skanera_prawo" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I50.5] czujnik "GN-sen_obecnosc_sruby_lewo" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I50.5] czujnik "GN-sen_obecnosc_sruby_lewo" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I51.5] czujnik "GN-sen_obecnosc_sruby_srodek" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I51.5] czujnik "GN-sen_obecnosc_sruby_srodek" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I50.6] czujnik "GN-sen_obecnosc_sruby_prawo" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I50.6] czujnik "GN-sen_obecnosc_sruby_prawo" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I60.3] czujnik "BR-sen_poduszka_na_pinie_01" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I60.3] czujnik "BR-sen_poduszka_na_pinie_01" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I61.3] czujnik "BR-sen_poduszka_na_pinie_02" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I61.3] czujnik "BR-sen_poduszka_na_pinie_02" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I70.3] czujnik "BR-sen_poduszka_na_pinie_03" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I70.3] czujnik "BR-sen_poduszka_na_pinie_03" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I71.3] czujnik "BR-sen_poduszka_na_pinie_04" jest aktywny</t>
+  </si>
+  <si>
+    <t>[I71.3] czujnik "BR-sen_poduszka_na_pinie_04" jest nieaktywny</t>
   </si>
   <si>
     <t>[I0.1]  "SAFETY_cisnienie_ok" jest nieaktywny</t>
   </si>
   <si>
-    <t>[I0.2]  "SAFETY_faza_ok" jest nieaktywny</t>
-  </si>
-  <si>
-    <t>[I0.3]  "SAFETY_stol_ok" jest nieaktywny</t>
+    <t>[I0.2]  "SAFETY_estop_wcisniety" jest nieaktywny</t>
+  </si>
+  <si>
+    <t>[I0.3]  "SAFETY_drzwi_ok" jest nieaktywny</t>
   </si>
   <si>
     <t>[I0.4]  "SAFETY_kurtyna_ok" jest nieaktywny</t>
@@ -421,9 +838,6 @@
     <t>[I0.5]  "SAFETY_estop_ok" jest nieaktywny</t>
   </si>
   <si>
-    <t>[I1.0]  "SAFETY_drzwi_zamkniete" jest nieaktywny</t>
-  </si>
-  <si>
     <t>[I0.0] przycisk "A-btn_start" jest aktywny</t>
   </si>
   <si>
@@ -457,13 +871,25 @@
     <t>A-ALARMS_VALVES_err0</t>
   </si>
   <si>
+    <t>A-ALARMS_VALVES_err1</t>
+  </si>
+  <si>
+    <t>A-ALARMS_VALVES_err2</t>
+  </si>
+  <si>
+    <t>A-ALARMS_VALVES_err3</t>
+  </si>
+  <si>
+    <t>A-ALARMS_VALVES_err4</t>
+  </si>
+  <si>
+    <t>A-ALARMS_VALVES_err5</t>
+  </si>
+  <si>
     <t>A-ALARMS_SENSORS_sen0</t>
   </si>
   <si>
     <t>A-ALARMS_SENSORS_sen1</t>
-  </si>
-  <si>
-    <t>A-ALARMS_SENSORS_sen2</t>
   </si>
   <si>
     <t>A-ALARMS_SAFETY_sft0</t>
@@ -884,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,37 +1368,37 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -983,37 +1409,37 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1024,37 +1450,37 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M4" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1065,37 +1491,37 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M5" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N5" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1106,37 +1532,37 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M6" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N6" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1147,37 +1573,37 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J7" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K7" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N7" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1188,37 +1614,37 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M8" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N8" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1229,37 +1655,37 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N9" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1270,37 +1696,37 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K10" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N10" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1311,37 +1737,37 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J11" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M11" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N11" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1352,37 +1778,37 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N12" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1393,37 +1819,37 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J13" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M13" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N13" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1434,37 +1860,37 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N14" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1475,37 +1901,37 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="H15" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M15" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1516,37 +1942,37 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="H16" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M16" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1557,37 +1983,37 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1598,37 +2024,37 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M18" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1639,37 +2065,37 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L19" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M19" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1680,37 +2106,37 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1721,37 +2147,37 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M21" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1762,37 +2188,37 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M22" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1803,37 +2229,37 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M23" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1844,37 +2270,37 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K24" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M24" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N24" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1885,37 +2311,37 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L25" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1926,37 +2352,37 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="H26" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N26" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1967,37 +2393,37 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I27" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K27" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N27" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2008,37 +2434,37 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="H28" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N28" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2049,37 +2475,37 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2090,37 +2516,37 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2131,37 +2557,37 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="H31" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I31" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N31" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2172,37 +2598,37 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2213,37 +2639,37 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I33" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N33" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2254,37 +2680,37 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2295,37 +2721,37 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I35" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K35" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2336,37 +2762,37 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K36" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2377,37 +2803,37 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="H37" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2418,37 +2844,37 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2459,37 +2885,37 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2500,37 +2926,37 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="H40" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J40" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2541,37 +2967,37 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="H41" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M41" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N41" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2582,37 +3008,37 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J42" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N42" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2623,37 +3049,37 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="H43" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J43" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2664,37 +3090,37 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="H44" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J44" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2705,37 +3131,37 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J45" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M45" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2746,37 +3172,37 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J46" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M46" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2787,37 +3213,37 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="H47" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I47" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M47" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2828,37 +3254,37 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I48" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J48" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2869,37 +3295,37 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="H49" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I49" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M49" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N49" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2910,37 +3336,37 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="H50" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I50" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M50" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N50" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2951,37 +3377,37 @@
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="H51" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I51" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J51" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M51" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N51" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2992,37 +3418,37 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="H52" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I52" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J52" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K52" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M52" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N52" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3033,37 +3459,37 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="H53" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I53" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J53" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L53" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M53" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3074,37 +3500,37 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J54" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K54" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="M54" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N54" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3115,37 +3541,37 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I55" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K55" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N55" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3156,37 +3582,37 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I56" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J56" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L56" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="M56" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N56" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3197,37 +3623,37 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J57" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K57" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="M57" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N57" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3238,37 +3664,37 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="H58" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I58" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J58" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="M58" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N58" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3279,37 +3705,37 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G59" t="s">
-        <v>157</v>
+        <v>303</v>
       </c>
       <c r="H59" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J59" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K59" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="M59" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N59" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3320,37 +3746,37 @@
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="H60" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I60" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L60" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="M60" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N60" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3361,37 +3787,37 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="H61" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I61" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J61" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K61" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="M61" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N61" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3402,37 +3828,37 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="H62" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I62" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J62" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K62" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L62" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="M62" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N62" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3443,37 +3869,37 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="H63" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I63" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J63" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K63" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L63" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="M63" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N63" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3484,37 +3910,37 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="H64" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="I64" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="J64" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="K64" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="M64" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N64" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3525,37 +3951,2866 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" t="s">
+        <v>287</v>
+      </c>
+      <c r="G65" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" t="s">
+        <v>310</v>
+      </c>
+      <c r="I65" t="s">
+        <v>294</v>
+      </c>
+      <c r="J65" t="s">
+        <v>310</v>
+      </c>
+      <c r="K65" t="s">
+        <v>294</v>
+      </c>
+      <c r="L65" t="s">
+        <v>280</v>
+      </c>
+      <c r="M65" t="s">
+        <v>311</v>
+      </c>
+      <c r="N65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66" t="s">
+        <v>294</v>
+      </c>
+      <c r="H66" t="s">
+        <v>310</v>
+      </c>
+      <c r="I66" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" t="s">
+        <v>310</v>
+      </c>
+      <c r="K66" t="s">
+        <v>294</v>
+      </c>
+      <c r="L66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M66" t="s">
+        <v>311</v>
+      </c>
+      <c r="N66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>280</v>
+      </c>
+      <c r="F67" t="s">
+        <v>288</v>
+      </c>
+      <c r="G67" t="s">
+        <v>295</v>
+      </c>
+      <c r="H67" t="s">
+        <v>310</v>
+      </c>
+      <c r="I67" t="s">
+        <v>294</v>
+      </c>
+      <c r="J67" t="s">
+        <v>310</v>
+      </c>
+      <c r="K67" t="s">
+        <v>294</v>
+      </c>
+      <c r="L67" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" t="s">
+        <v>311</v>
+      </c>
+      <c r="N67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" t="s">
+        <v>296</v>
+      </c>
+      <c r="H68" t="s">
+        <v>310</v>
+      </c>
+      <c r="I68" t="s">
+        <v>294</v>
+      </c>
+      <c r="J68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K68" t="s">
+        <v>294</v>
+      </c>
+      <c r="L68" t="s">
+        <v>280</v>
+      </c>
+      <c r="M68" t="s">
+        <v>311</v>
+      </c>
+      <c r="N68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H69" t="s">
+        <v>310</v>
+      </c>
+      <c r="I69" t="s">
+        <v>294</v>
+      </c>
+      <c r="J69" t="s">
+        <v>310</v>
+      </c>
+      <c r="K69" t="s">
+        <v>294</v>
+      </c>
+      <c r="L69" t="s">
+        <v>280</v>
+      </c>
+      <c r="M69" t="s">
+        <v>311</v>
+      </c>
+      <c r="N69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" t="s">
+        <v>298</v>
+      </c>
+      <c r="H70" t="s">
+        <v>310</v>
+      </c>
+      <c r="I70" t="s">
+        <v>294</v>
+      </c>
+      <c r="J70" t="s">
+        <v>310</v>
+      </c>
+      <c r="K70" t="s">
+        <v>294</v>
+      </c>
+      <c r="L70" t="s">
+        <v>280</v>
+      </c>
+      <c r="M70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N70" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71" t="s">
+        <v>299</v>
+      </c>
+      <c r="H71" t="s">
+        <v>310</v>
+      </c>
+      <c r="I71" t="s">
+        <v>294</v>
+      </c>
+      <c r="J71" t="s">
+        <v>310</v>
+      </c>
+      <c r="K71" t="s">
+        <v>294</v>
+      </c>
+      <c r="L71" t="s">
+        <v>280</v>
+      </c>
+      <c r="M71" t="s">
+        <v>311</v>
+      </c>
+      <c r="N71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" t="s">
+        <v>310</v>
+      </c>
+      <c r="I72" t="s">
+        <v>294</v>
+      </c>
+      <c r="J72" t="s">
+        <v>310</v>
+      </c>
+      <c r="K72" t="s">
+        <v>294</v>
+      </c>
+      <c r="L72" t="s">
+        <v>280</v>
+      </c>
+      <c r="M72" t="s">
+        <v>311</v>
+      </c>
+      <c r="N72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" t="s">
+        <v>301</v>
+      </c>
+      <c r="H73" t="s">
+        <v>310</v>
+      </c>
+      <c r="I73" t="s">
+        <v>294</v>
+      </c>
+      <c r="J73" t="s">
+        <v>310</v>
+      </c>
+      <c r="K73" t="s">
+        <v>294</v>
+      </c>
+      <c r="L73" t="s">
+        <v>280</v>
+      </c>
+      <c r="M73" t="s">
+        <v>311</v>
+      </c>
+      <c r="N73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" t="s">
+        <v>302</v>
+      </c>
+      <c r="H74" t="s">
+        <v>310</v>
+      </c>
+      <c r="I74" t="s">
+        <v>294</v>
+      </c>
+      <c r="J74" t="s">
+        <v>310</v>
+      </c>
+      <c r="K74" t="s">
+        <v>294</v>
+      </c>
+      <c r="L74" t="s">
+        <v>280</v>
+      </c>
+      <c r="M74" t="s">
+        <v>311</v>
+      </c>
+      <c r="N74" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" t="s">
+        <v>288</v>
+      </c>
+      <c r="G75" t="s">
+        <v>303</v>
+      </c>
+      <c r="H75" t="s">
+        <v>310</v>
+      </c>
+      <c r="I75" t="s">
+        <v>294</v>
+      </c>
+      <c r="J75" t="s">
+        <v>310</v>
+      </c>
+      <c r="K75" t="s">
+        <v>294</v>
+      </c>
+      <c r="L75" t="s">
+        <v>280</v>
+      </c>
+      <c r="M75" t="s">
+        <v>311</v>
+      </c>
+      <c r="N75" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F76" t="s">
+        <v>288</v>
+      </c>
+      <c r="G76" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" t="s">
+        <v>310</v>
+      </c>
+      <c r="I76" t="s">
+        <v>294</v>
+      </c>
+      <c r="J76" t="s">
+        <v>310</v>
+      </c>
+      <c r="K76" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" t="s">
+        <v>280</v>
+      </c>
+      <c r="M76" t="s">
+        <v>311</v>
+      </c>
+      <c r="N76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" t="s">
+        <v>280</v>
+      </c>
+      <c r="F77" t="s">
+        <v>288</v>
+      </c>
+      <c r="G77" t="s">
+        <v>305</v>
+      </c>
+      <c r="H77" t="s">
+        <v>310</v>
+      </c>
+      <c r="I77" t="s">
+        <v>294</v>
+      </c>
+      <c r="J77" t="s">
+        <v>310</v>
+      </c>
+      <c r="K77" t="s">
+        <v>294</v>
+      </c>
+      <c r="L77" t="s">
+        <v>280</v>
+      </c>
+      <c r="M77" t="s">
+        <v>311</v>
+      </c>
+      <c r="N77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" t="s">
+        <v>280</v>
+      </c>
+      <c r="F78" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" t="s">
+        <v>306</v>
+      </c>
+      <c r="H78" t="s">
+        <v>310</v>
+      </c>
+      <c r="I78" t="s">
+        <v>294</v>
+      </c>
+      <c r="J78" t="s">
+        <v>310</v>
+      </c>
+      <c r="K78" t="s">
+        <v>294</v>
+      </c>
+      <c r="L78" t="s">
+        <v>280</v>
+      </c>
+      <c r="M78" t="s">
+        <v>311</v>
+      </c>
+      <c r="N78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" t="s">
+        <v>280</v>
+      </c>
+      <c r="F79" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" t="s">
+        <v>307</v>
+      </c>
+      <c r="H79" t="s">
+        <v>310</v>
+      </c>
+      <c r="I79" t="s">
+        <v>294</v>
+      </c>
+      <c r="J79" t="s">
+        <v>310</v>
+      </c>
+      <c r="K79" t="s">
+        <v>294</v>
+      </c>
+      <c r="L79" t="s">
+        <v>280</v>
+      </c>
+      <c r="M79" t="s">
+        <v>311</v>
+      </c>
+      <c r="N79" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" t="s">
+        <v>288</v>
+      </c>
+      <c r="G80" t="s">
+        <v>308</v>
+      </c>
+      <c r="H80" t="s">
+        <v>310</v>
+      </c>
+      <c r="I80" t="s">
+        <v>294</v>
+      </c>
+      <c r="J80" t="s">
+        <v>310</v>
+      </c>
+      <c r="K80" t="s">
+        <v>294</v>
+      </c>
+      <c r="L80" t="s">
+        <v>280</v>
+      </c>
+      <c r="M80" t="s">
+        <v>311</v>
+      </c>
+      <c r="N80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" t="s">
+        <v>288</v>
+      </c>
+      <c r="G81" t="s">
+        <v>309</v>
+      </c>
+      <c r="H81" t="s">
+        <v>310</v>
+      </c>
+      <c r="I81" t="s">
+        <v>294</v>
+      </c>
+      <c r="J81" t="s">
+        <v>310</v>
+      </c>
+      <c r="K81" t="s">
+        <v>294</v>
+      </c>
+      <c r="L81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M81" t="s">
+        <v>311</v>
+      </c>
+      <c r="N81" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" t="s">
+        <v>280</v>
+      </c>
+      <c r="F82" t="s">
+        <v>289</v>
+      </c>
+      <c r="G82" t="s">
+        <v>294</v>
+      </c>
+      <c r="H82" t="s">
+        <v>310</v>
+      </c>
+      <c r="I82" t="s">
+        <v>294</v>
+      </c>
+      <c r="J82" t="s">
+        <v>310</v>
+      </c>
+      <c r="K82" t="s">
+        <v>294</v>
+      </c>
+      <c r="L82" t="s">
+        <v>280</v>
+      </c>
+      <c r="M82" t="s">
+        <v>311</v>
+      </c>
+      <c r="N82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" t="s">
+        <v>289</v>
+      </c>
+      <c r="G83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" t="s">
+        <v>310</v>
+      </c>
+      <c r="I83" t="s">
+        <v>294</v>
+      </c>
+      <c r="J83" t="s">
+        <v>310</v>
+      </c>
+      <c r="K83" t="s">
+        <v>294</v>
+      </c>
+      <c r="L83" t="s">
+        <v>280</v>
+      </c>
+      <c r="M83" t="s">
+        <v>311</v>
+      </c>
+      <c r="N83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" t="s">
+        <v>289</v>
+      </c>
+      <c r="G84" t="s">
+        <v>296</v>
+      </c>
+      <c r="H84" t="s">
+        <v>310</v>
+      </c>
+      <c r="I84" t="s">
+        <v>294</v>
+      </c>
+      <c r="J84" t="s">
+        <v>310</v>
+      </c>
+      <c r="K84" t="s">
+        <v>294</v>
+      </c>
+      <c r="L84" t="s">
+        <v>280</v>
+      </c>
+      <c r="M84" t="s">
+        <v>311</v>
+      </c>
+      <c r="N84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+      <c r="E85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>289</v>
+      </c>
+      <c r="G85" t="s">
+        <v>297</v>
+      </c>
+      <c r="H85" t="s">
+        <v>310</v>
+      </c>
+      <c r="I85" t="s">
+        <v>294</v>
+      </c>
+      <c r="J85" t="s">
+        <v>310</v>
+      </c>
+      <c r="K85" t="s">
+        <v>294</v>
+      </c>
+      <c r="L85" t="s">
+        <v>280</v>
+      </c>
+      <c r="M85" t="s">
+        <v>311</v>
+      </c>
+      <c r="N85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" t="s">
+        <v>289</v>
+      </c>
+      <c r="G86" t="s">
+        <v>298</v>
+      </c>
+      <c r="H86" t="s">
+        <v>310</v>
+      </c>
+      <c r="I86" t="s">
+        <v>294</v>
+      </c>
+      <c r="J86" t="s">
+        <v>310</v>
+      </c>
+      <c r="K86" t="s">
+        <v>294</v>
+      </c>
+      <c r="L86" t="s">
+        <v>280</v>
+      </c>
+      <c r="M86" t="s">
+        <v>311</v>
+      </c>
+      <c r="N86" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" t="s">
+        <v>280</v>
+      </c>
+      <c r="F87" t="s">
+        <v>289</v>
+      </c>
+      <c r="G87" t="s">
+        <v>299</v>
+      </c>
+      <c r="H87" t="s">
+        <v>310</v>
+      </c>
+      <c r="I87" t="s">
+        <v>294</v>
+      </c>
+      <c r="J87" t="s">
+        <v>310</v>
+      </c>
+      <c r="K87" t="s">
+        <v>294</v>
+      </c>
+      <c r="L87" t="s">
+        <v>280</v>
+      </c>
+      <c r="M87" t="s">
+        <v>311</v>
+      </c>
+      <c r="N87" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+      <c r="E88" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" t="s">
+        <v>289</v>
+      </c>
+      <c r="G88" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" t="s">
+        <v>310</v>
+      </c>
+      <c r="I88" t="s">
+        <v>294</v>
+      </c>
+      <c r="J88" t="s">
+        <v>310</v>
+      </c>
+      <c r="K88" t="s">
+        <v>294</v>
+      </c>
+      <c r="L88" t="s">
+        <v>280</v>
+      </c>
+      <c r="M88" t="s">
+        <v>311</v>
+      </c>
+      <c r="N88" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" t="s">
+        <v>280</v>
+      </c>
+      <c r="F89" t="s">
+        <v>289</v>
+      </c>
+      <c r="G89" t="s">
+        <v>301</v>
+      </c>
+      <c r="H89" t="s">
+        <v>310</v>
+      </c>
+      <c r="I89" t="s">
+        <v>294</v>
+      </c>
+      <c r="J89" t="s">
+        <v>310</v>
+      </c>
+      <c r="K89" t="s">
+        <v>294</v>
+      </c>
+      <c r="L89" t="s">
+        <v>280</v>
+      </c>
+      <c r="M89" t="s">
+        <v>311</v>
+      </c>
+      <c r="N89" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" t="s">
+        <v>280</v>
+      </c>
+      <c r="F90" t="s">
+        <v>289</v>
+      </c>
+      <c r="G90" t="s">
+        <v>302</v>
+      </c>
+      <c r="H90" t="s">
+        <v>310</v>
+      </c>
+      <c r="I90" t="s">
+        <v>294</v>
+      </c>
+      <c r="J90" t="s">
+        <v>310</v>
+      </c>
+      <c r="K90" t="s">
+        <v>294</v>
+      </c>
+      <c r="L90" t="s">
+        <v>280</v>
+      </c>
+      <c r="M90" t="s">
+        <v>311</v>
+      </c>
+      <c r="N90" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" t="s">
+        <v>289</v>
+      </c>
+      <c r="G91" t="s">
+        <v>303</v>
+      </c>
+      <c r="H91" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91" t="s">
+        <v>294</v>
+      </c>
+      <c r="J91" t="s">
+        <v>310</v>
+      </c>
+      <c r="K91" t="s">
+        <v>294</v>
+      </c>
+      <c r="L91" t="s">
+        <v>280</v>
+      </c>
+      <c r="M91" t="s">
+        <v>311</v>
+      </c>
+      <c r="N91" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" t="s">
+        <v>280</v>
+      </c>
+      <c r="F92" t="s">
+        <v>289</v>
+      </c>
+      <c r="G92" t="s">
+        <v>304</v>
+      </c>
+      <c r="H92" t="s">
+        <v>310</v>
+      </c>
+      <c r="I92" t="s">
+        <v>294</v>
+      </c>
+      <c r="J92" t="s">
+        <v>310</v>
+      </c>
+      <c r="K92" t="s">
+        <v>294</v>
+      </c>
+      <c r="L92" t="s">
+        <v>280</v>
+      </c>
+      <c r="M92" t="s">
+        <v>311</v>
+      </c>
+      <c r="N92" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" t="s">
+        <v>280</v>
+      </c>
+      <c r="F93" t="s">
+        <v>289</v>
+      </c>
+      <c r="G93" t="s">
+        <v>305</v>
+      </c>
+      <c r="H93" t="s">
+        <v>310</v>
+      </c>
+      <c r="I93" t="s">
+        <v>294</v>
+      </c>
+      <c r="J93" t="s">
+        <v>310</v>
+      </c>
+      <c r="K93" t="s">
+        <v>294</v>
+      </c>
+      <c r="L93" t="s">
+        <v>280</v>
+      </c>
+      <c r="M93" t="s">
+        <v>311</v>
+      </c>
+      <c r="N93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>280</v>
+      </c>
+      <c r="F94" t="s">
+        <v>289</v>
+      </c>
+      <c r="G94" t="s">
+        <v>306</v>
+      </c>
+      <c r="H94" t="s">
+        <v>310</v>
+      </c>
+      <c r="I94" t="s">
+        <v>294</v>
+      </c>
+      <c r="J94" t="s">
+        <v>310</v>
+      </c>
+      <c r="K94" t="s">
+        <v>294</v>
+      </c>
+      <c r="L94" t="s">
+        <v>280</v>
+      </c>
+      <c r="M94" t="s">
+        <v>311</v>
+      </c>
+      <c r="N94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" t="s">
+        <v>280</v>
+      </c>
+      <c r="F95" t="s">
+        <v>289</v>
+      </c>
+      <c r="G95" t="s">
+        <v>307</v>
+      </c>
+      <c r="H95" t="s">
+        <v>310</v>
+      </c>
+      <c r="I95" t="s">
+        <v>294</v>
+      </c>
+      <c r="J95" t="s">
+        <v>310</v>
+      </c>
+      <c r="K95" t="s">
+        <v>294</v>
+      </c>
+      <c r="L95" t="s">
+        <v>280</v>
+      </c>
+      <c r="M95" t="s">
+        <v>311</v>
+      </c>
+      <c r="N95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" t="s">
+        <v>289</v>
+      </c>
+      <c r="G96" t="s">
+        <v>308</v>
+      </c>
+      <c r="H96" t="s">
+        <v>310</v>
+      </c>
+      <c r="I96" t="s">
+        <v>294</v>
+      </c>
+      <c r="J96" t="s">
+        <v>310</v>
+      </c>
+      <c r="K96" t="s">
+        <v>294</v>
+      </c>
+      <c r="L96" t="s">
+        <v>280</v>
+      </c>
+      <c r="M96" t="s">
+        <v>311</v>
+      </c>
+      <c r="N96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F97" t="s">
+        <v>289</v>
+      </c>
+      <c r="G97" t="s">
+        <v>309</v>
+      </c>
+      <c r="H97" t="s">
+        <v>310</v>
+      </c>
+      <c r="I97" t="s">
+        <v>294</v>
+      </c>
+      <c r="J97" t="s">
+        <v>310</v>
+      </c>
+      <c r="K97" t="s">
+        <v>294</v>
+      </c>
+      <c r="L97" t="s">
+        <v>280</v>
+      </c>
+      <c r="M97" t="s">
+        <v>311</v>
+      </c>
+      <c r="N97" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" t="s">
+        <v>281</v>
+      </c>
+      <c r="F98" t="s">
+        <v>290</v>
+      </c>
+      <c r="G98" t="s">
+        <v>294</v>
+      </c>
+      <c r="H98" t="s">
+        <v>310</v>
+      </c>
+      <c r="I98" t="s">
+        <v>294</v>
+      </c>
+      <c r="J98" t="s">
+        <v>310</v>
+      </c>
+      <c r="K98" t="s">
+        <v>294</v>
+      </c>
+      <c r="L98" t="s">
+        <v>281</v>
+      </c>
+      <c r="M98" t="s">
+        <v>311</v>
+      </c>
+      <c r="N98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" t="s">
+        <v>244</v>
+      </c>
+      <c r="E99" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99" t="s">
+        <v>295</v>
+      </c>
+      <c r="H99" t="s">
+        <v>310</v>
+      </c>
+      <c r="I99" t="s">
+        <v>294</v>
+      </c>
+      <c r="J99" t="s">
+        <v>310</v>
+      </c>
+      <c r="K99" t="s">
+        <v>294</v>
+      </c>
+      <c r="L99" t="s">
+        <v>281</v>
+      </c>
+      <c r="M99" t="s">
+        <v>311</v>
+      </c>
+      <c r="N99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" t="s">
+        <v>245</v>
+      </c>
+      <c r="E100" t="s">
+        <v>281</v>
+      </c>
+      <c r="F100" t="s">
+        <v>290</v>
+      </c>
+      <c r="G100" t="s">
+        <v>296</v>
+      </c>
+      <c r="H100" t="s">
+        <v>310</v>
+      </c>
+      <c r="I100" t="s">
+        <v>294</v>
+      </c>
+      <c r="J100" t="s">
+        <v>310</v>
+      </c>
+      <c r="K100" t="s">
+        <v>294</v>
+      </c>
+      <c r="L100" t="s">
+        <v>281</v>
+      </c>
+      <c r="M100" t="s">
+        <v>311</v>
+      </c>
+      <c r="N100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" t="s">
+        <v>290</v>
+      </c>
+      <c r="G101" t="s">
+        <v>297</v>
+      </c>
+      <c r="H101" t="s">
+        <v>310</v>
+      </c>
+      <c r="I101" t="s">
+        <v>294</v>
+      </c>
+      <c r="J101" t="s">
+        <v>310</v>
+      </c>
+      <c r="K101" t="s">
+        <v>294</v>
+      </c>
+      <c r="L101" t="s">
+        <v>281</v>
+      </c>
+      <c r="M101" t="s">
+        <v>311</v>
+      </c>
+      <c r="N101" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" t="s">
+        <v>298</v>
+      </c>
+      <c r="H102" t="s">
+        <v>310</v>
+      </c>
+      <c r="I102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J102" t="s">
+        <v>310</v>
+      </c>
+      <c r="K102" t="s">
+        <v>294</v>
+      </c>
+      <c r="L102" t="s">
+        <v>281</v>
+      </c>
+      <c r="M102" t="s">
+        <v>311</v>
+      </c>
+      <c r="N102" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" t="s">
+        <v>281</v>
+      </c>
+      <c r="F103" t="s">
+        <v>290</v>
+      </c>
+      <c r="G103" t="s">
+        <v>299</v>
+      </c>
+      <c r="H103" t="s">
+        <v>310</v>
+      </c>
+      <c r="I103" t="s">
+        <v>294</v>
+      </c>
+      <c r="J103" t="s">
+        <v>310</v>
+      </c>
+      <c r="K103" t="s">
+        <v>294</v>
+      </c>
+      <c r="L103" t="s">
+        <v>281</v>
+      </c>
+      <c r="M103" t="s">
+        <v>311</v>
+      </c>
+      <c r="N103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E104" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" t="s">
+        <v>290</v>
+      </c>
+      <c r="G104" t="s">
+        <v>300</v>
+      </c>
+      <c r="H104" t="s">
+        <v>310</v>
+      </c>
+      <c r="I104" t="s">
+        <v>294</v>
+      </c>
+      <c r="J104" t="s">
+        <v>310</v>
+      </c>
+      <c r="K104" t="s">
+        <v>294</v>
+      </c>
+      <c r="L104" t="s">
+        <v>281</v>
+      </c>
+      <c r="M104" t="s">
+        <v>311</v>
+      </c>
+      <c r="N104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" t="s">
+        <v>250</v>
+      </c>
+      <c r="E105" t="s">
+        <v>281</v>
+      </c>
+      <c r="F105" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" t="s">
+        <v>301</v>
+      </c>
+      <c r="H105" t="s">
+        <v>310</v>
+      </c>
+      <c r="I105" t="s">
+        <v>294</v>
+      </c>
+      <c r="J105" t="s">
+        <v>310</v>
+      </c>
+      <c r="K105" t="s">
+        <v>294</v>
+      </c>
+      <c r="L105" t="s">
+        <v>281</v>
+      </c>
+      <c r="M105" t="s">
+        <v>311</v>
+      </c>
+      <c r="N105" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" t="s">
+        <v>281</v>
+      </c>
+      <c r="F106" t="s">
+        <v>290</v>
+      </c>
+      <c r="G106" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" t="s">
+        <v>310</v>
+      </c>
+      <c r="I106" t="s">
+        <v>294</v>
+      </c>
+      <c r="J106" t="s">
+        <v>310</v>
+      </c>
+      <c r="K106" t="s">
+        <v>294</v>
+      </c>
+      <c r="L106" t="s">
+        <v>281</v>
+      </c>
+      <c r="M106" t="s">
+        <v>311</v>
+      </c>
+      <c r="N106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" t="s">
+        <v>252</v>
+      </c>
+      <c r="E107" t="s">
+        <v>281</v>
+      </c>
+      <c r="F107" t="s">
+        <v>290</v>
+      </c>
+      <c r="G107" t="s">
+        <v>303</v>
+      </c>
+      <c r="H107" t="s">
+        <v>310</v>
+      </c>
+      <c r="I107" t="s">
+        <v>294</v>
+      </c>
+      <c r="J107" t="s">
+        <v>310</v>
+      </c>
+      <c r="K107" t="s">
+        <v>294</v>
+      </c>
+      <c r="L107" t="s">
+        <v>281</v>
+      </c>
+      <c r="M107" t="s">
+        <v>311</v>
+      </c>
+      <c r="N107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" t="s">
+        <v>281</v>
+      </c>
+      <c r="F108" t="s">
+        <v>290</v>
+      </c>
+      <c r="G108" t="s">
+        <v>304</v>
+      </c>
+      <c r="H108" t="s">
+        <v>310</v>
+      </c>
+      <c r="I108" t="s">
+        <v>294</v>
+      </c>
+      <c r="J108" t="s">
+        <v>310</v>
+      </c>
+      <c r="K108" t="s">
+        <v>294</v>
+      </c>
+      <c r="L108" t="s">
+        <v>281</v>
+      </c>
+      <c r="M108" t="s">
+        <v>311</v>
+      </c>
+      <c r="N108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" t="s">
+        <v>281</v>
+      </c>
+      <c r="F109" t="s">
+        <v>290</v>
+      </c>
+      <c r="G109" t="s">
+        <v>305</v>
+      </c>
+      <c r="H109" t="s">
+        <v>310</v>
+      </c>
+      <c r="I109" t="s">
+        <v>294</v>
+      </c>
+      <c r="J109" t="s">
+        <v>310</v>
+      </c>
+      <c r="K109" t="s">
+        <v>294</v>
+      </c>
+      <c r="L109" t="s">
+        <v>281</v>
+      </c>
+      <c r="M109" t="s">
+        <v>311</v>
+      </c>
+      <c r="N109" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110" t="s">
+        <v>290</v>
+      </c>
+      <c r="G110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H110" t="s">
+        <v>310</v>
+      </c>
+      <c r="I110" t="s">
+        <v>294</v>
+      </c>
+      <c r="J110" t="s">
+        <v>310</v>
+      </c>
+      <c r="K110" t="s">
+        <v>294</v>
+      </c>
+      <c r="L110" t="s">
+        <v>281</v>
+      </c>
+      <c r="M110" t="s">
+        <v>311</v>
+      </c>
+      <c r="N110" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" t="s">
+        <v>256</v>
+      </c>
+      <c r="E111" t="s">
+        <v>281</v>
+      </c>
+      <c r="F111" t="s">
+        <v>290</v>
+      </c>
+      <c r="G111" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" t="s">
+        <v>310</v>
+      </c>
+      <c r="I111" t="s">
+        <v>294</v>
+      </c>
+      <c r="J111" t="s">
+        <v>310</v>
+      </c>
+      <c r="K111" t="s">
+        <v>294</v>
+      </c>
+      <c r="L111" t="s">
+        <v>281</v>
+      </c>
+      <c r="M111" t="s">
+        <v>311</v>
+      </c>
+      <c r="N111" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" t="s">
+        <v>281</v>
+      </c>
+      <c r="F112" t="s">
+        <v>290</v>
+      </c>
+      <c r="G112" t="s">
+        <v>308</v>
+      </c>
+      <c r="H112" t="s">
+        <v>310</v>
+      </c>
+      <c r="I112" t="s">
+        <v>294</v>
+      </c>
+      <c r="J112" t="s">
+        <v>310</v>
+      </c>
+      <c r="K112" t="s">
+        <v>294</v>
+      </c>
+      <c r="L112" t="s">
+        <v>281</v>
+      </c>
+      <c r="M112" t="s">
+        <v>311</v>
+      </c>
+      <c r="N112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" t="s">
+        <v>281</v>
+      </c>
+      <c r="F113" t="s">
+        <v>290</v>
+      </c>
+      <c r="G113" t="s">
+        <v>309</v>
+      </c>
+      <c r="H113" t="s">
+        <v>310</v>
+      </c>
+      <c r="I113" t="s">
+        <v>294</v>
+      </c>
+      <c r="J113" t="s">
+        <v>310</v>
+      </c>
+      <c r="K113" t="s">
+        <v>294</v>
+      </c>
+      <c r="L113" t="s">
+        <v>281</v>
+      </c>
+      <c r="M113" t="s">
+        <v>311</v>
+      </c>
+      <c r="N113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" t="s">
+        <v>291</v>
+      </c>
+      <c r="G114" t="s">
+        <v>294</v>
+      </c>
+      <c r="H114" t="s">
+        <v>310</v>
+      </c>
+      <c r="I114" t="s">
+        <v>294</v>
+      </c>
+      <c r="J114" t="s">
+        <v>310</v>
+      </c>
+      <c r="K114" t="s">
+        <v>294</v>
+      </c>
+      <c r="L114" t="s">
+        <v>281</v>
+      </c>
+      <c r="M114" t="s">
+        <v>311</v>
+      </c>
+      <c r="N114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" t="s">
+        <v>281</v>
+      </c>
+      <c r="F115" t="s">
+        <v>291</v>
+      </c>
+      <c r="G115" t="s">
+        <v>295</v>
+      </c>
+      <c r="H115" t="s">
+        <v>310</v>
+      </c>
+      <c r="I115" t="s">
+        <v>294</v>
+      </c>
+      <c r="J115" t="s">
+        <v>310</v>
+      </c>
+      <c r="K115" t="s">
+        <v>294</v>
+      </c>
+      <c r="L115" t="s">
+        <v>281</v>
+      </c>
+      <c r="M115" t="s">
+        <v>311</v>
+      </c>
+      <c r="N115" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116" t="s">
+        <v>281</v>
+      </c>
+      <c r="F116" t="s">
+        <v>291</v>
+      </c>
+      <c r="G116" t="s">
+        <v>296</v>
+      </c>
+      <c r="H116" t="s">
+        <v>310</v>
+      </c>
+      <c r="I116" t="s">
+        <v>294</v>
+      </c>
+      <c r="J116" t="s">
+        <v>310</v>
+      </c>
+      <c r="K116" t="s">
+        <v>294</v>
+      </c>
+      <c r="L116" t="s">
+        <v>281</v>
+      </c>
+      <c r="M116" t="s">
+        <v>311</v>
+      </c>
+      <c r="N116" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117" t="s">
+        <v>291</v>
+      </c>
+      <c r="G117" t="s">
+        <v>297</v>
+      </c>
+      <c r="H117" t="s">
+        <v>310</v>
+      </c>
+      <c r="I117" t="s">
+        <v>294</v>
+      </c>
+      <c r="J117" t="s">
+        <v>310</v>
+      </c>
+      <c r="K117" t="s">
+        <v>294</v>
+      </c>
+      <c r="L117" t="s">
+        <v>281</v>
+      </c>
+      <c r="M117" t="s">
+        <v>311</v>
+      </c>
+      <c r="N117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" t="s">
+        <v>281</v>
+      </c>
+      <c r="F118" t="s">
+        <v>291</v>
+      </c>
+      <c r="G118" t="s">
+        <v>298</v>
+      </c>
+      <c r="H118" t="s">
+        <v>310</v>
+      </c>
+      <c r="I118" t="s">
+        <v>294</v>
+      </c>
+      <c r="J118" t="s">
+        <v>310</v>
+      </c>
+      <c r="K118" t="s">
+        <v>294</v>
+      </c>
+      <c r="L118" t="s">
+        <v>281</v>
+      </c>
+      <c r="M118" t="s">
+        <v>311</v>
+      </c>
+      <c r="N118" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" t="s">
+        <v>281</v>
+      </c>
+      <c r="F119" t="s">
+        <v>291</v>
+      </c>
+      <c r="G119" t="s">
+        <v>299</v>
+      </c>
+      <c r="H119" t="s">
+        <v>310</v>
+      </c>
+      <c r="I119" t="s">
+        <v>294</v>
+      </c>
+      <c r="J119" t="s">
+        <v>310</v>
+      </c>
+      <c r="K119" t="s">
+        <v>294</v>
+      </c>
+      <c r="L119" t="s">
+        <v>281</v>
+      </c>
+      <c r="M119" t="s">
+        <v>311</v>
+      </c>
+      <c r="N119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" t="s">
+        <v>291</v>
+      </c>
+      <c r="G120" t="s">
+        <v>300</v>
+      </c>
+      <c r="H120" t="s">
+        <v>310</v>
+      </c>
+      <c r="I120" t="s">
+        <v>294</v>
+      </c>
+      <c r="J120" t="s">
+        <v>310</v>
+      </c>
+      <c r="K120" t="s">
+        <v>294</v>
+      </c>
+      <c r="L120" t="s">
+        <v>281</v>
+      </c>
+      <c r="M120" t="s">
+        <v>311</v>
+      </c>
+      <c r="N120" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" t="s">
+        <v>281</v>
+      </c>
+      <c r="F121" t="s">
+        <v>291</v>
+      </c>
+      <c r="G121" t="s">
+        <v>301</v>
+      </c>
+      <c r="H121" t="s">
+        <v>310</v>
+      </c>
+      <c r="I121" t="s">
+        <v>294</v>
+      </c>
+      <c r="J121" t="s">
+        <v>310</v>
+      </c>
+      <c r="K121" t="s">
+        <v>294</v>
+      </c>
+      <c r="L121" t="s">
+        <v>281</v>
+      </c>
+      <c r="M121" t="s">
+        <v>311</v>
+      </c>
+      <c r="N121" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" t="s">
+        <v>281</v>
+      </c>
+      <c r="F122" t="s">
+        <v>291</v>
+      </c>
+      <c r="G122" t="s">
+        <v>302</v>
+      </c>
+      <c r="H122" t="s">
+        <v>310</v>
+      </c>
+      <c r="I122" t="s">
+        <v>294</v>
+      </c>
+      <c r="J122" t="s">
+        <v>310</v>
+      </c>
+      <c r="K122" t="s">
+        <v>294</v>
+      </c>
+      <c r="L122" t="s">
+        <v>281</v>
+      </c>
+      <c r="M122" t="s">
+        <v>311</v>
+      </c>
+      <c r="N122" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" t="s">
+        <v>281</v>
+      </c>
+      <c r="F123" t="s">
+        <v>291</v>
+      </c>
+      <c r="G123" t="s">
+        <v>303</v>
+      </c>
+      <c r="H123" t="s">
+        <v>310</v>
+      </c>
+      <c r="I123" t="s">
+        <v>294</v>
+      </c>
+      <c r="J123" t="s">
+        <v>310</v>
+      </c>
+      <c r="K123" t="s">
+        <v>294</v>
+      </c>
+      <c r="L123" t="s">
+        <v>281</v>
+      </c>
+      <c r="M123" t="s">
+        <v>311</v>
+      </c>
+      <c r="N123" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" t="s">
+        <v>282</v>
+      </c>
+      <c r="F124" t="s">
+        <v>292</v>
+      </c>
+      <c r="G124" t="s">
+        <v>294</v>
+      </c>
+      <c r="H124" t="s">
+        <v>310</v>
+      </c>
+      <c r="I124" t="s">
+        <v>294</v>
+      </c>
+      <c r="J124" t="s">
+        <v>310</v>
+      </c>
+      <c r="K124" t="s">
+        <v>294</v>
+      </c>
+      <c r="L124" t="s">
+        <v>282</v>
+      </c>
+      <c r="M124" t="s">
+        <v>311</v>
+      </c>
+      <c r="N124" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" t="s">
+        <v>282</v>
+      </c>
+      <c r="F125" t="s">
+        <v>292</v>
+      </c>
+      <c r="G125" t="s">
+        <v>295</v>
+      </c>
+      <c r="H125" t="s">
+        <v>310</v>
+      </c>
+      <c r="I125" t="s">
+        <v>294</v>
+      </c>
+      <c r="J125" t="s">
+        <v>310</v>
+      </c>
+      <c r="K125" t="s">
+        <v>294</v>
+      </c>
+      <c r="L125" t="s">
+        <v>282</v>
+      </c>
+      <c r="M125" t="s">
+        <v>311</v>
+      </c>
+      <c r="N125" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" t="s">
+        <v>271</v>
+      </c>
+      <c r="E126" t="s">
+        <v>282</v>
+      </c>
+      <c r="F126" t="s">
+        <v>292</v>
+      </c>
+      <c r="G126" t="s">
+        <v>296</v>
+      </c>
+      <c r="H126" t="s">
+        <v>310</v>
+      </c>
+      <c r="I126" t="s">
+        <v>294</v>
+      </c>
+      <c r="J126" t="s">
+        <v>310</v>
+      </c>
+      <c r="K126" t="s">
+        <v>294</v>
+      </c>
+      <c r="L126" t="s">
+        <v>282</v>
+      </c>
+      <c r="M126" t="s">
+        <v>311</v>
+      </c>
+      <c r="N126" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" t="s">
+        <v>272</v>
+      </c>
+      <c r="E127" t="s">
+        <v>282</v>
+      </c>
+      <c r="F127" t="s">
+        <v>292</v>
+      </c>
+      <c r="G127" t="s">
+        <v>297</v>
+      </c>
+      <c r="H127" t="s">
+        <v>310</v>
+      </c>
+      <c r="I127" t="s">
+        <v>294</v>
+      </c>
+      <c r="J127" t="s">
+        <v>310</v>
+      </c>
+      <c r="K127" t="s">
+        <v>294</v>
+      </c>
+      <c r="L127" t="s">
+        <v>282</v>
+      </c>
+      <c r="M127" t="s">
+        <v>311</v>
+      </c>
+      <c r="N127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128" t="s">
+        <v>282</v>
+      </c>
+      <c r="F128" t="s">
+        <v>292</v>
+      </c>
+      <c r="G128" t="s">
+        <v>298</v>
+      </c>
+      <c r="H128" t="s">
+        <v>310</v>
+      </c>
+      <c r="I128" t="s">
+        <v>294</v>
+      </c>
+      <c r="J128" t="s">
+        <v>310</v>
+      </c>
+      <c r="K128" t="s">
+        <v>294</v>
+      </c>
+      <c r="L128" t="s">
+        <v>282</v>
+      </c>
+      <c r="M128" t="s">
+        <v>311</v>
+      </c>
+      <c r="N128" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>141</v>
       </c>
-      <c r="E65" t="s">
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
+      <c r="F129" t="s">
+        <v>293</v>
+      </c>
+      <c r="G129" t="s">
+        <v>294</v>
+      </c>
+      <c r="H129" t="s">
+        <v>310</v>
+      </c>
+      <c r="I129" t="s">
+        <v>294</v>
+      </c>
+      <c r="J129" t="s">
+        <v>310</v>
+      </c>
+      <c r="K129" t="s">
+        <v>294</v>
+      </c>
+      <c r="L129" t="s">
+        <v>283</v>
+      </c>
+      <c r="M129" t="s">
+        <v>311</v>
+      </c>
+      <c r="N129" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" t="s">
+        <v>275</v>
+      </c>
+      <c r="E130" t="s">
+        <v>283</v>
+      </c>
+      <c r="F130" t="s">
+        <v>293</v>
+      </c>
+      <c r="G130" t="s">
+        <v>295</v>
+      </c>
+      <c r="H130" t="s">
+        <v>310</v>
+      </c>
+      <c r="I130" t="s">
+        <v>294</v>
+      </c>
+      <c r="J130" t="s">
+        <v>310</v>
+      </c>
+      <c r="K130" t="s">
+        <v>294</v>
+      </c>
+      <c r="L130" t="s">
+        <v>283</v>
+      </c>
+      <c r="M130" t="s">
+        <v>311</v>
+      </c>
+      <c r="N130" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" t="s">
+        <v>276</v>
+      </c>
+      <c r="E131" t="s">
+        <v>283</v>
+      </c>
+      <c r="F131" t="s">
+        <v>293</v>
+      </c>
+      <c r="G131" t="s">
+        <v>296</v>
+      </c>
+      <c r="H131" t="s">
+        <v>310</v>
+      </c>
+      <c r="I131" t="s">
+        <v>294</v>
+      </c>
+      <c r="J131" t="s">
+        <v>310</v>
+      </c>
+      <c r="K131" t="s">
+        <v>294</v>
+      </c>
+      <c r="L131" t="s">
+        <v>283</v>
+      </c>
+      <c r="M131" t="s">
+        <v>311</v>
+      </c>
+      <c r="N131" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" t="s">
+        <v>277</v>
+      </c>
+      <c r="E132" t="s">
+        <v>283</v>
+      </c>
+      <c r="F132" t="s">
+        <v>293</v>
+      </c>
+      <c r="G132" t="s">
+        <v>297</v>
+      </c>
+      <c r="H132" t="s">
+        <v>310</v>
+      </c>
+      <c r="I132" t="s">
+        <v>294</v>
+      </c>
+      <c r="J132" t="s">
+        <v>310</v>
+      </c>
+      <c r="K132" t="s">
+        <v>294</v>
+      </c>
+      <c r="L132" t="s">
+        <v>283</v>
+      </c>
+      <c r="M132" t="s">
+        <v>311</v>
+      </c>
+      <c r="N132" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
         <v>145</v>
       </c>
-      <c r="F65" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" t="s">
-        <v>168</v>
-      </c>
-      <c r="I65" t="s">
-        <v>152</v>
-      </c>
-      <c r="J65" t="s">
-        <v>168</v>
-      </c>
-      <c r="K65" t="s">
-        <v>152</v>
-      </c>
-      <c r="L65" t="s">
-        <v>145</v>
-      </c>
-      <c r="M65" t="s">
-        <v>169</v>
-      </c>
-      <c r="N65" t="s">
-        <v>170</v>
+      <c r="C133" t="s">
+        <v>278</v>
+      </c>
+      <c r="E133" t="s">
+        <v>283</v>
+      </c>
+      <c r="F133" t="s">
+        <v>293</v>
+      </c>
+      <c r="G133" t="s">
+        <v>298</v>
+      </c>
+      <c r="H133" t="s">
+        <v>310</v>
+      </c>
+      <c r="I133" t="s">
+        <v>294</v>
+      </c>
+      <c r="J133" t="s">
+        <v>310</v>
+      </c>
+      <c r="K133" t="s">
+        <v>294</v>
+      </c>
+      <c r="L133" t="s">
+        <v>283</v>
+      </c>
+      <c r="M133" t="s">
+        <v>311</v>
+      </c>
+      <c r="N133" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" t="s">
+        <v>283</v>
+      </c>
+      <c r="F134" t="s">
+        <v>293</v>
+      </c>
+      <c r="G134" t="s">
+        <v>299</v>
+      </c>
+      <c r="H134" t="s">
+        <v>310</v>
+      </c>
+      <c r="I134" t="s">
+        <v>294</v>
+      </c>
+      <c r="J134" t="s">
+        <v>310</v>
+      </c>
+      <c r="K134" t="s">
+        <v>294</v>
+      </c>
+      <c r="L134" t="s">
+        <v>283</v>
+      </c>
+      <c r="M134" t="s">
+        <v>311</v>
+      </c>
+      <c r="N134" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
